--- a/tests/matlab_ref/matlab_output/matlab_toronto_cooldemand_debugging.xlsx
+++ b/tests/matlab_ref/matlab_output/matlab_toronto_cooldemand_debugging.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\631\Documents\GitHub\UWG_Python\tests\matlab_ref\matlab_output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="405" windowWidth="24615" windowHeight="10215"/>
+    <workbookView xWindow="360" yWindow="408" windowWidth="24612" windowHeight="10212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -53,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,23 +605,43 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$M$2</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -630,7 +655,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$M$3:$M$26</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$M$3:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -709,13 +734,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E80-4FA5-9C0D-3646D7C1EEB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$N$2</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -729,7 +760,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$N$3:$N$26</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$N$3:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -808,13 +839,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E80-4FA5-9C0D-3646D7C1EEB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$O$2</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$O$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -828,16 +865,22 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$O$3:$O$26</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$O$3:$O$26</c:f>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4E80-4FA5-9C0D-3646D7C1EEB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$P$2</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -851,16 +894,22 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$P$3:$P$26</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$P$3:$P$26</c:f>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4E80-4FA5-9C0D-3646D7C1EEB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$Q$2</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$Q$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -874,7 +923,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$Q$3:$Q$26</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$Q$3:$Q$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -953,13 +1002,19 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4E80-4FA5-9C0D-3646D7C1EEB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$R$2</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -973,7 +1028,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>CAN_ON_Toronto.716240_CWEC_cool!$R$3:$R$26</c:f>
+              <c:f>'CAN_ON_Toronto.716240_CWEC_cool'!$R$3:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1052,8 +1107,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4E80-4FA5-9C0D-3646D7C1EEB8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="83223680"/>
         <c:axId val="83225216"/>
       </c:lineChart>
@@ -1062,15 +1131,19 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="83225216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="83225216"/>
@@ -1079,10 +1152,13 @@
           <c:max val="110"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="83223680"/>
         <c:crosses val="autoZero"/>
@@ -1093,33 +1169,42 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="15744" y="23615"/>
-    <xdr:ext cx="8674835" cy="6297521"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -1913,7 +1998,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1945,9 +2030,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1979,6 +2082,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2154,23 +2275,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8:R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="6"/>
+    <col min="13" max="14" width="9.109375" style="6"/>
     <col min="15" max="16" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="6"/>
+    <col min="17" max="18" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
@@ -2188,7 +2309,7 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2226,7 +2347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1970</v>
       </c>
@@ -2280,7 +2401,7 @@
         <v>76.405518953673507</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1970</v>
       </c>
@@ -2333,7 +2454,7 @@
         <v>83.726255272658705</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1970</v>
       </c>
@@ -2386,7 +2507,7 @@
         <v>88.381740493732195</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1970</v>
       </c>
@@ -2439,7 +2560,7 @@
         <v>91.035765162896496</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1970</v>
       </c>
@@ -2492,7 +2613,7 @@
         <v>92.191533316542802</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1">
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1970</v>
       </c>
@@ -2545,7 +2666,7 @@
         <v>93.937213181243706</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1970</v>
       </c>
@@ -2598,7 +2719,7 @@
         <v>97.416152569759802</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1970</v>
       </c>
@@ -2652,7 +2773,7 @@
         <v>100.39932895603999</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1970</v>
       </c>
@@ -2705,7 +2826,7 @@
         <v>100.67252446917701</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1970</v>
       </c>
@@ -2758,7 +2879,7 @@
         <v>100.42203039750601</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1970</v>
       </c>
@@ -2811,7 +2932,7 @@
         <v>98.527498285837098</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1970</v>
       </c>
@@ -2865,7 +2986,7 @@
         <v>91.854107677946203</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1970</v>
       </c>
@@ -2919,7 +3040,7 @@
         <v>82.8786002647321</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1970</v>
       </c>
@@ -2972,7 +3093,7 @@
         <v>78.154730377075893</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1970</v>
       </c>
@@ -3025,7 +3146,7 @@
         <v>68.859980396227499</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1970</v>
       </c>
@@ -3078,7 +3199,7 @@
         <v>60.3275149446999</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1970</v>
       </c>
@@ -3131,7 +3252,7 @@
         <v>59.7264095460026</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1970</v>
       </c>
@@ -3184,7 +3305,7 @@
         <v>60.052005428168897</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="2" customFormat="1">
+    <row r="21" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1970</v>
       </c>
@@ -3237,7 +3358,7 @@
         <v>58.435928460674297</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1970</v>
       </c>
@@ -3290,7 +3411,7 @@
         <v>59.171054047001903</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1970</v>
       </c>
@@ -3343,7 +3464,7 @@
         <v>62.836364927360798</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1970</v>
       </c>
@@ -3396,7 +3517,7 @@
         <v>62.526589957140501</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1970</v>
       </c>
@@ -3449,7 +3570,7 @@
         <v>61.446654985886298</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1970</v>
       </c>
